--- a/example/data_Template.xlsx
+++ b/example/data_Template.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
   <si>
     <t>序号</t>
   </si>
@@ -187,6 +187,34 @@
   </si>
   <si>
     <t>暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果命中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果抵抗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针女</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -198,7 +226,7 @@
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +237,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -232,12 +268,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -269,18 +308,16 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -573,22 +610,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="4" width="9" style="8"/>
-    <col min="5" max="5" width="9" style="10"/>
-    <col min="6" max="6" width="9" style="8"/>
-    <col min="7" max="9" width="9" style="10"/>
+    <col min="3" max="6" width="9" style="8"/>
+    <col min="7" max="9" width="9" style="1"/>
     <col min="10" max="10" width="9" style="8"/>
-    <col min="11" max="13" width="9" style="10"/>
+    <col min="11" max="13" width="9" style="1"/>
     <col min="14" max="14" width="9" style="8"/>
     <col min="15" max="16384" width="9" style="3"/>
   </cols>
@@ -606,31 +641,31 @@
       <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="N1" s="7" t="s">
@@ -651,16 +686,16 @@
         <v>100</v>
       </c>
       <c r="E2" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="H2" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="I2" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="K2" s="10">
-        <v>0.03</v>
+        <v>3</v>
+      </c>
+      <c r="H2" s="1">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -677,13 +712,13 @@
         <v>10</v>
       </c>
       <c r="E3" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="H3" s="10">
-        <v>0.89</v>
-      </c>
-      <c r="I3" s="10">
-        <v>0.16</v>
+        <v>3</v>
+      </c>
+      <c r="H3" s="1">
+        <v>55</v>
+      </c>
+      <c r="I3" s="1">
+        <v>16</v>
       </c>
       <c r="N3" s="8">
         <v>3</v>
@@ -700,16 +735,16 @@
         <v>4</v>
       </c>
       <c r="E4" s="10">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="I4" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="K4" s="10">
-        <v>0.03</v>
+        <v>55</v>
+      </c>
+      <c r="H4" s="1">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1">
+        <v>10</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -723,16 +758,16 @@
         <v>3</v>
       </c>
       <c r="E5" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="H5" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="I5" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="K5" s="10">
-        <v>0.03</v>
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>6</v>
+      </c>
+      <c r="I5" s="1">
+        <v>10</v>
+      </c>
+      <c r="K5" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -746,13 +781,13 @@
         <v>2</v>
       </c>
       <c r="E6" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="I6" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="K6" s="10">
-        <v>0.03</v>
+        <v>60</v>
+      </c>
+      <c r="I6" s="1">
+        <v>10</v>
+      </c>
+      <c r="K6" s="1">
+        <v>3</v>
       </c>
       <c r="N6" s="8">
         <v>5</v>
@@ -769,10 +804,10 @@
         <v>5</v>
       </c>
       <c r="E7" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="I7" s="10">
-        <v>0.16</v>
+        <v>3</v>
+      </c>
+      <c r="I7" s="1">
+        <v>16</v>
       </c>
       <c r="N7" s="8">
         <v>3</v>
@@ -783,22 +818,42 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="C8" s="8">
         <v>1</v>
       </c>
       <c r="E8" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="H8" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="I8" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="K8" s="10">
-        <v>0.03</v>
+        <v>5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>6</v>
+      </c>
+      <c r="I8" s="1">
+        <v>10</v>
+      </c>
+      <c r="K8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="8">
+        <v>5</v>
+      </c>
+      <c r="E9" s="10">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1">
+        <v>16</v>
+      </c>
+      <c r="N9" s="8">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -828,7 +883,7 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -845,24 +900,48 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="11" t="s">
-        <v>15</v>
+      <c r="A2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
@@ -879,6 +958,12 @@
       <c r="A7" t="s">
         <v>19</v>
       </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
@@ -909,21 +994,45 @@
       <c r="A13" t="s">
         <v>25</v>
       </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>27</v>
       </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
@@ -940,76 +1049,166 @@
       <c r="A18" t="s">
         <v>30</v>
       </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18">
+        <v>15</v>
+      </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
+        <v>15</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>32</v>
       </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20">
+        <v>30</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>33</v>
       </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21">
+        <v>30</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>34</v>
       </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22">
+        <v>15</v>
+      </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>35</v>
       </c>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23">
+        <v>30</v>
+      </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>36</v>
       </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24">
+        <v>15</v>
+      </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>37</v>
       </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25">
+        <v>15</v>
+      </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>38</v>
       </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26">
+        <v>15</v>
+      </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>39</v>
       </c>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27">
+        <v>15</v>
+      </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>40</v>
       </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28">
+        <v>15</v>
+      </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>41</v>
       </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29">
+        <v>15</v>
+      </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>42</v>
       </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30">
+        <v>15</v>
+      </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>43</v>
       </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>44</v>
       </c>
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32">
+        <v>15</v>
+      </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
@@ -1026,11 +1225,23 @@
       <c r="A34" t="s">
         <v>46</v>
       </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34">
+        <v>15</v>
+      </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>47</v>
       </c>
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35">
+        <v>15</v>
+      </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
@@ -1047,18 +1258,37 @@
       <c r="A37" t="s">
         <v>48</v>
       </c>
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37">
+        <v>15</v>
+      </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>49</v>
       </c>
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38">
+        <v>15</v>
+      </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>50</v>
       </c>
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/example/data_Template.xlsx
+++ b/example/data_Template.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\github\calculator_of_Onmyoji\example\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12345"/>
   </bookViews>
@@ -17,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
   <si>
-    <t>序号</t>
-  </si>
-  <si>
     <t>御魂类型</t>
   </si>
   <si>
@@ -216,28 +218,31 @@
   <si>
     <t>针女</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>御魂序号</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="164" formatCode="0_ "/>
+    <numFmt numFmtId="165" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -245,7 +250,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -280,7 +285,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -292,7 +297,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
@@ -301,17 +306,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -322,6 +327,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -368,7 +381,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -400,9 +413,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -434,6 +448,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -609,14 +624,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="9" style="2"/>
@@ -630,46 +645,46 @@
   <sheetData>
     <row r="1" spans="1:14" s="6" customFormat="1">
       <c r="A1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -677,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
@@ -703,7 +718,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="8">
         <v>6</v>
@@ -729,7 +744,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="8">
         <v>4</v>
@@ -752,7 +767,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="8">
         <v>3</v>
@@ -775,7 +790,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="8">
         <v>2</v>
@@ -798,7 +813,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="8">
         <v>5</v>
@@ -818,7 +833,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="8">
         <v>1</v>
@@ -841,7 +856,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="8">
         <v>5</v>
@@ -879,32 +894,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>52</v>
-      </c>
-      <c r="C1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2">
         <v>30</v>
@@ -912,10 +927,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3">
         <v>15</v>
@@ -923,10 +938,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -934,10 +949,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5">
         <v>30</v>
@@ -945,10 +960,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6">
         <v>15</v>
@@ -956,10 +971,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7">
         <v>15</v>
@@ -967,35 +982,35 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13">
         <v>30</v>
@@ -1003,10 +1018,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14">
         <v>15</v>
@@ -1014,10 +1029,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15">
         <v>15</v>
@@ -1025,10 +1040,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -1036,10 +1051,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -1047,10 +1062,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18">
         <v>15</v>
@@ -1058,10 +1073,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19">
         <v>15</v>
@@ -1069,10 +1084,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20">
         <v>30</v>
@@ -1080,10 +1095,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21">
         <v>30</v>
@@ -1091,10 +1106,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22">
         <v>15</v>
@@ -1102,10 +1117,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23">
         <v>30</v>
@@ -1113,10 +1128,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24">
         <v>15</v>
@@ -1124,10 +1139,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25">
         <v>15</v>
@@ -1135,10 +1150,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26">
         <v>15</v>
@@ -1146,10 +1161,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27">
         <v>15</v>
@@ -1157,10 +1172,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28">
         <v>15</v>
@@ -1168,10 +1183,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29">
         <v>15</v>
@@ -1179,10 +1194,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30">
         <v>15</v>
@@ -1190,10 +1205,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -1201,10 +1216,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C32">
         <v>15</v>
@@ -1212,10 +1227,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33">
         <v>15</v>
@@ -1223,10 +1238,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34">
         <v>15</v>
@@ -1234,10 +1249,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C35">
         <v>15</v>
@@ -1245,10 +1260,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C36">
         <v>15</v>
@@ -1256,10 +1271,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C37">
         <v>15</v>
@@ -1267,10 +1282,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C38">
         <v>15</v>
@@ -1278,10 +1293,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39">
         <v>15</v>
